--- a/planilha fechamento.xlsx
+++ b/planilha fechamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b673b05a8b1b1a8/Área de Trabalho/PASTAS PROJETOS/ConsultaPagamentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_DF434EB097230FC58E7EDF1733FF9A565F2E3272" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFA68694-4801-41A8-A193-9504B15671B7}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_0DD08C195213D1C48E7EDF1733274A9481A9D50E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46E264AA-6A67-4983-BD49-B08787B81B94}"/>
   <bookViews>
     <workbookView xWindow="5115" yWindow="0" windowWidth="15375" windowHeight="7785" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,8 +240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="134" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="G5" sqref="A2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/planilha fechamento.xlsx
+++ b/planilha fechamento.xlsx
@@ -1,78 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b673b05a8b1b1a8/Área de Trabalho/PASTAS PROJETOS/ConsultaPagamentos/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_0DD08C195213D1C48E7EDF1733274A9481A9D50E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46E264AA-6A67-4983-BD49-B08787B81B94}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="0" windowWidth="15375" windowHeight="7785" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5115" yWindow="0" windowWidth="15375" windowHeight="7785" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>CPF</t>
-  </si>
-  <si>
-    <t>Vencimento</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Data pagamento</t>
-  </si>
-  <si>
-    <t>Método pagamento</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="1"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -106,25 +75,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -237,54 +265,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" zoomScale="134" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="G5" sqref="A2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
+    <col width="20.28515625" customWidth="1" min="1" max="1"/>
+    <col width="14.140625" customWidth="1" min="3" max="3"/>
+    <col width="14.42578125" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1" ht="13.5" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>CPF</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Vencimento</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Data pagamento</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Método pagamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Noah da Mota</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>747.91</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>472.963.815-82</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>07/04/2024</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>em dia</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>25/01/2025</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>cartão</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Carlos Eduardo Santos</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>123.2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>231.659.708-40</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>07/12/2024</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>pendente</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Dr. Felipe Farias</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>285.56</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>487.039.126-04</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>07/02/2024</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>pendente</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Luigi Barros</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>349.87</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>179.432.680-40</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29/06/2024</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>pendente</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Stella da Luz</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>449.42</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>821.074.653-71</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16/07/2024</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>em dia</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>19/03/2025</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>cartão</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048573" ht="12.75" customHeight="1"/>
+    <row r="1048574" ht="12.75" customHeight="1"/>
+    <row r="1048575" ht="12.75" customHeight="1"/>
+    <row r="1048576" ht="12.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/planilha fechamento.xlsx
+++ b/planilha fechamento.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5115" yWindow="0" windowWidth="15375" windowHeight="7785" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -270,10 +270,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="134" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="G5" sqref="A2:G5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="134" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -463,6 +463,91 @@
       <c r="G6" t="inlineStr">
         <is>
           <t>cartão</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Noah da Mota</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Carlos Eduardo Santos</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Dr. Felipe Farias</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Luigi Barros</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Stella da Luz</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Noah da Mota</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>747.91</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>472.963.815-82</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>07/04/2024</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>pendente</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Carlos Eduardo Santos</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>123.2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>231.659.708-40</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>07/12/2024</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>pendente</t>
         </is>
       </c>
     </row>
